--- a/Simulation.xlsx
+++ b/Simulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rangeetpan/Documents/Hridesh Rajan/Paper/ICSE/NetworkSlice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D538E409-C5AA-EC43-A224-AFE79F4F8F52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86065624-C124-D24C-A5E2-109D17009900}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="460" windowWidth="27720" windowHeight="17540" activeTab="1" xr2:uid="{FA8F0DBD-A225-6042-899C-8A374AED4C18}"/>
   </bookViews>
@@ -210,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -227,6 +227,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4982,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF34D984-340F-5545-893C-069AB7065B84}">
   <dimension ref="B1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5045,7 +5046,7 @@
       <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="8"/>
